--- a/Shading Trees/my_graphs/impact_2.xlsx
+++ b/Shading Trees/my_graphs/impact_2.xlsx
@@ -14,56 +14,56 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="23">
+  <si>
+    <t>Investment</t>
+  </si>
   <si>
     <t>Saving</t>
   </si>
   <si>
-    <t>Investment</t>
+    <t>PROI</t>
+  </si>
+  <si>
+    <t>PPBT</t>
   </si>
   <si>
     <t>Water Saving</t>
   </si>
   <si>
+    <t>Emission Saving</t>
+  </si>
+  <si>
+    <t>Land Saving</t>
+  </si>
+  <si>
+    <t>Import Saving</t>
+  </si>
+  <si>
+    <t>Capital Saving</t>
+  </si>
+  <si>
+    <t>Workforce Saving</t>
+  </si>
+  <si>
     <t>Water Investment</t>
   </si>
   <si>
-    <t>Emission Saving</t>
-  </si>
-  <si>
     <t>Emission Investment</t>
   </si>
   <si>
-    <t>Land Saving</t>
-  </si>
-  <si>
     <t>Land Investment</t>
   </si>
   <si>
-    <t>Workforce Saving</t>
+    <t>Import Investment</t>
   </si>
   <si>
     <t>Workforce Investment</t>
   </si>
   <si>
-    <t>Capital Saving</t>
-  </si>
-  <si>
     <t>Capital Investment</t>
   </si>
   <si>
-    <t>Import Saving</t>
-  </si>
-  <si>
-    <t>Import Investment</t>
-  </si>
-  <si>
-    <t>PROI</t>
-  </si>
-  <si>
-    <t>PPBT</t>
-  </si>
-  <si>
     <t>Water Total Impact</t>
   </si>
   <si>
@@ -82,22 +82,7 @@
     <t>Capital Total Impact</t>
   </si>
   <si>
-    <t>15</t>
-  </si>
-  <si>
-    <t>16</t>
-  </si>
-  <si>
-    <t>17</t>
-  </si>
-  <si>
-    <t>18</t>
-  </si>
-  <si>
-    <t>19</t>
-  </si>
-  <si>
-    <t>20</t>
+    <t>single</t>
   </si>
 </sst>
 </file>
@@ -455,7 +440,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:W7"/>
+  <dimension ref="A1:W2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -534,425 +519,70 @@
         <v>22</v>
       </c>
       <c r="B2">
-        <v>4365.000763011165</v>
+        <v>1.000000158324838</v>
       </c>
       <c r="C2">
-        <v>5642.492198294029</v>
+        <v>0.9354393007233739</v>
       </c>
       <c r="D2">
-        <v>184.5891532280075</v>
+        <v>0.9354391526201219</v>
       </c>
       <c r="E2">
-        <v>3.534659058204852</v>
+        <v>1.06901661877103</v>
       </c>
       <c r="F2">
-        <v>3.383025959865336</v>
+        <v>0.04106397050782107</v>
       </c>
       <c r="G2">
-        <v>6.249668782013032</v>
+        <v>0.05008577914486523</v>
       </c>
       <c r="H2">
-        <v>15.49350752494956</v>
+        <v>0.003466384087914776</v>
       </c>
       <c r="I2">
-        <v>0.00961161613031436</v>
+        <v>0.08160151727497578</v>
       </c>
       <c r="J2">
-        <v>459.035820513498</v>
+        <v>0.07793689612299204</v>
       </c>
       <c r="K2">
-        <v>662.5370965441689</v>
+        <v>0.06345285149291158</v>
       </c>
       <c r="L2">
-        <v>388.3219460267574</v>
+        <v>0.0005181713204365224</v>
       </c>
       <c r="M2">
-        <v>30.53577131731436</v>
+        <v>0.0009185673316096654</v>
       </c>
       <c r="N2">
-        <v>377.8871675510891</v>
+        <v>1.404879185429309e-06</v>
       </c>
       <c r="O2">
-        <v>442.1361596963834</v>
+        <v>0.06491394690237939</v>
       </c>
       <c r="P2">
-        <v>0.7735944702468344</v>
+        <v>0.09720575390383601</v>
       </c>
       <c r="Q2">
-        <v>1.292666944324105</v>
+        <v>0.00409148377366364</v>
       </c>
       <c r="R2">
-        <v>-3688.248405501945</v>
+        <v>-0.8207612388359848</v>
       </c>
       <c r="S2">
-        <v>-61.41085041529368</v>
+        <v>-1.000797015565695</v>
       </c>
       <c r="T2">
-        <v>-309.860538882861</v>
+        <v>-0.06932627687911008</v>
       </c>
       <c r="U2">
-        <v>-7115.607191325398</v>
+        <v>-1.567116398597136</v>
       </c>
       <c r="V2">
-        <v>-8518.179313725792</v>
+        <v>-1.171851275954396</v>
       </c>
       <c r="W2">
-        <v>-7735.903149217833</v>
-      </c>
-    </row>
-    <row r="3" spans="1:23">
-      <c r="A3" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="B3">
-        <v>4671.380665223114</v>
-      </c>
-      <c r="C3">
-        <v>5642.492198294029</v>
-      </c>
-      <c r="D3">
-        <v>197.6041694924206</v>
-      </c>
-      <c r="E3">
-        <v>3.534659058204852</v>
-      </c>
-      <c r="F3">
-        <v>3.61963726738577</v>
-      </c>
-      <c r="G3">
-        <v>6.249668782013032</v>
-      </c>
-      <c r="H3">
-        <v>16.60174479822399</v>
-      </c>
-      <c r="I3">
-        <v>0.00961161613031436</v>
-      </c>
-      <c r="J3">
-        <v>491.45160775166</v>
-      </c>
-      <c r="K3">
-        <v>662.5370965441689</v>
-      </c>
-      <c r="L3">
-        <v>414.7921823845245</v>
-      </c>
-      <c r="M3">
-        <v>30.53577131731436</v>
-      </c>
-      <c r="N3">
-        <v>404.4664113693871</v>
-      </c>
-      <c r="O3">
-        <v>442.1361596963834</v>
-      </c>
-      <c r="P3">
-        <v>0.8278931544886275</v>
-      </c>
-      <c r="Q3">
-        <v>1.207885334693556</v>
-      </c>
-      <c r="R3">
-        <v>-3948.548730790208</v>
-      </c>
-      <c r="S3">
-        <v>-66.14307656570236</v>
-      </c>
-      <c r="T3">
-        <v>-332.0252843483495</v>
-      </c>
-      <c r="U3">
-        <v>-7647.192067691358</v>
-      </c>
-      <c r="V3">
-        <v>-9166.495058489032</v>
-      </c>
-      <c r="W3">
-        <v>-8265.307876373176</v>
-      </c>
-    </row>
-    <row r="4" spans="1:23">
-      <c r="A4" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="B4">
-        <v>4977.571706524119</v>
-      </c>
-      <c r="C4">
-        <v>5642.492198294029</v>
-      </c>
-      <c r="D4">
-        <v>210.6111629465158</v>
-      </c>
-      <c r="E4">
-        <v>3.534659058204852</v>
-      </c>
-      <c r="F4">
-        <v>3.856102721249044</v>
-      </c>
-      <c r="G4">
-        <v>6.249668782013032</v>
-      </c>
-      <c r="H4">
-        <v>17.7092989238763</v>
-      </c>
-      <c r="I4">
-        <v>0.00961161613031436</v>
-      </c>
-      <c r="J4">
-        <v>523.8474130155519</v>
-      </c>
-      <c r="K4">
-        <v>662.5370965441689</v>
-      </c>
-      <c r="L4">
-        <v>441.2461017684545</v>
-      </c>
-      <c r="M4">
-        <v>30.53577131731436</v>
-      </c>
-      <c r="N4">
-        <v>431.0292710186914</v>
-      </c>
-      <c r="O4">
-        <v>442.1361596963834</v>
-      </c>
-      <c r="P4">
-        <v>0.8821583675435219</v>
-      </c>
-      <c r="Q4">
-        <v>1.133583307478704</v>
-      </c>
-      <c r="R4">
-        <v>-4208.688599872112</v>
-      </c>
-      <c r="S4">
-        <v>-70.87238564296786</v>
-      </c>
-      <c r="T4">
-        <v>-354.1763668613958</v>
-      </c>
-      <c r="U4">
-        <v>-8178.449260677444</v>
-      </c>
-      <c r="V4">
-        <v>-9814.411163766868</v>
-      </c>
-      <c r="W4">
-        <v>-8794.386264051776</v>
-      </c>
-    </row>
-    <row r="5" spans="1:23">
-      <c r="A5" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="B5">
-        <v>5283.57406148687</v>
-      </c>
-      <c r="C5">
-        <v>5642.492198294029</v>
-      </c>
-      <c r="D5">
-        <v>223.6101410062111</v>
-      </c>
-      <c r="E5">
-        <v>3.534659058204852</v>
-      </c>
-      <c r="F5">
-        <v>4.092422456280474</v>
-      </c>
-      <c r="G5">
-        <v>6.249668782013032</v>
-      </c>
-      <c r="H5">
-        <v>18.81617053337504</v>
-      </c>
-      <c r="I5">
-        <v>0.00961161613031436</v>
-      </c>
-      <c r="J5">
-        <v>556.2232547765598</v>
-      </c>
-      <c r="K5">
-        <v>662.5370965441689</v>
-      </c>
-      <c r="L5">
-        <v>467.6837192601524</v>
-      </c>
-      <c r="M5">
-        <v>30.53577131731436</v>
-      </c>
-      <c r="N5">
-        <v>457.5757616427727</v>
-      </c>
-      <c r="O5">
-        <v>442.1361596963834</v>
-      </c>
-      <c r="P5">
-        <v>0.936390140350451</v>
-      </c>
-      <c r="Q5">
-        <v>1.067930937019203</v>
-      </c>
-      <c r="R5">
-        <v>-4468.668161066016</v>
-      </c>
-      <c r="S5">
-        <v>-75.59878034359645</v>
-      </c>
-      <c r="T5">
-        <v>-376.3137990513706</v>
-      </c>
-      <c r="U5">
-        <v>-8709.379073159071</v>
-      </c>
-      <c r="V5">
-        <v>-10461.92799898703</v>
-      </c>
-      <c r="W5">
-        <v>-9323.138613885734</v>
-      </c>
-    </row>
-    <row r="6" spans="1:23">
-      <c r="A6" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="B6">
-        <v>5589.387904470786</v>
-      </c>
-      <c r="C6">
-        <v>5642.492198294029</v>
-      </c>
-      <c r="D6">
-        <v>236.6011110783002</v>
-      </c>
-      <c r="E6">
-        <v>3.534659058204852</v>
-      </c>
-      <c r="F6">
-        <v>4.328596607134386</v>
-      </c>
-      <c r="G6">
-        <v>6.249668782013032</v>
-      </c>
-      <c r="H6">
-        <v>19.92236025741386</v>
-      </c>
-      <c r="I6">
-        <v>0.00961161613031436</v>
-      </c>
-      <c r="J6">
-        <v>588.5791514818557</v>
-      </c>
-      <c r="K6">
-        <v>662.5370965441689</v>
-      </c>
-      <c r="L6">
-        <v>494.105049924925</v>
-      </c>
-      <c r="M6">
-        <v>30.53577131731436</v>
-      </c>
-      <c r="N6">
-        <v>484.105898368638</v>
-      </c>
-      <c r="O6">
-        <v>442.1361596963834</v>
-      </c>
-      <c r="P6">
-        <v>0.9905885038105506</v>
-      </c>
-      <c r="Q6">
-        <v>1.009500914005408</v>
-      </c>
-      <c r="R6">
-        <v>-4728.487562507798</v>
-      </c>
-      <c r="S6">
-        <v>-80.3222633606747</v>
-      </c>
-      <c r="T6">
-        <v>-398.4375935321468</v>
-      </c>
-      <c r="U6">
-        <v>-9239.981807676377</v>
-      </c>
-      <c r="V6">
-        <v>-11109.04593309294</v>
-      </c>
-      <c r="W6">
-        <v>-9851.565227181185</v>
-      </c>
-    </row>
-    <row r="7" spans="1:23">
-      <c r="A7" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="B7">
-        <v>5895.013409622945</v>
-      </c>
-      <c r="C7">
-        <v>5642.492198294029</v>
-      </c>
-      <c r="D7">
-        <v>249.5840805604821</v>
-      </c>
-      <c r="E7">
-        <v>3.534659058204852</v>
-      </c>
-      <c r="F7">
-        <v>4.564625308310497</v>
-      </c>
-      <c r="G7">
-        <v>6.249668782013032</v>
-      </c>
-      <c r="H7">
-        <v>21.02786872591241</v>
-      </c>
-      <c r="I7">
-        <v>0.00961161613031436</v>
-      </c>
-      <c r="J7">
-        <v>620.9151215562597</v>
-      </c>
-      <c r="K7">
-        <v>662.5370965441689</v>
-      </c>
-      <c r="L7">
-        <v>520.5101088078227</v>
-      </c>
-      <c r="M7">
-        <v>30.53577131731436</v>
-      </c>
-      <c r="N7">
-        <v>510.6196963030379</v>
-      </c>
-      <c r="O7">
-        <v>442.1361596963834</v>
-      </c>
-      <c r="P7">
-        <v>1.044753488787324</v>
-      </c>
-      <c r="Q7">
-        <v>0.9571635900069873</v>
-      </c>
-      <c r="R7">
-        <v>-4988.146952151437</v>
-      </c>
-      <c r="S7">
-        <v>-85.0428373841969</v>
-      </c>
-      <c r="T7">
-        <v>-420.5477629021179</v>
-      </c>
-      <c r="U7">
-        <v>-9770.257766364375</v>
-      </c>
-      <c r="V7">
-        <v>-11755.76533458102</v>
-      </c>
-      <c r="W7">
-        <v>-10379.66640483914</v>
+        <v>-1.554646438686177</v>
       </c>
     </row>
   </sheetData>
